--- a/Pojecia.xlsx
+++ b/Pojecia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723C86D-3329-4BB4-BA2D-A9909025BF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA40537-5539-4888-9D29-0A2E254B1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="38640" windowHeight="21120" xr2:uid="{1C574333-6B31-4230-9C2C-DFD148D7B7A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Pojęcie</t>
   </si>
@@ -178,6 +178,291 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Odchylenie standardowe</t>
+  </si>
+  <si>
+    <t>Miara rozproszenia wartości w zbiorze danych wokół średniej.</t>
+  </si>
+  <si>
+    <r>
+      <t>std_dev = np.std(data)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> w Pythonie oblicza odchylenie standardowe dla listy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test t-Studenta</t>
+  </si>
+  <si>
+    <t>Statystyczny test porównujący średnie dwóch grup.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Użycie testu t w Pythonie: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>scipy.stats.ttest_ind(group1, group2)</t>
+    </r>
+  </si>
+  <si>
+    <t>CTE</t>
+  </si>
+  <si>
+    <t>Common Table Expression - tymczasowy wynik zapytania, który można ponownie wykorzystać w dalszej części.</t>
+  </si>
+  <si>
+    <t>WITH cte AS (SELECT * FROM tabela WHERE warunek) SELECT * FROM cte;</t>
+  </si>
+  <si>
+    <t>ROLLUP</t>
+  </si>
+  <si>
+    <t>Klauzula używana do agregacji danych na różnych poziomach hierarchii.</t>
+  </si>
+  <si>
+    <t>SELECT product, SUM(sales) FROM sales GROUP BY ROLLUP(product);</t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t>Biblioteka do obliczeń numerycznych i manipulacji tablicami wielowymiarowymi.</t>
+  </si>
+  <si>
+    <t>import numpy as np; array = np.array([1, 2, 3])</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>Biblioteka do wizualizacji danych w formie wykresów.</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt; plt.plot(data); plt.show()</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Algorytm uczenia maszynowego oparty na wielu drzewach decyzyjnych, stosowany do klasyfikacji i regresji.</t>
+  </si>
+  <si>
+    <t>from sklearn.ensemble import RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Klasyfikacja</t>
+  </si>
+  <si>
+    <t>Proces przypisywania elementów do określonych kategorii.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model klasyfikacyjny, np. klasyfikator logistyczny w </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Filtr</t>
+  </si>
+  <si>
+    <t>Element umożliwiający ograniczenie wyświetlanych danych na podstawie określonych kryteriów.</t>
+  </si>
+  <si>
+    <t>Ustawienie filtra w Power BI, np. "Rok = 2023".</t>
+  </si>
+  <si>
+    <t>Miara</t>
+  </si>
+  <si>
+    <t>Wyliczona wartość w modelu danych Power BI, np. suma sprzedaży.</t>
+  </si>
+  <si>
+    <r>
+      <t>SalesTotal = SUM(Sales[Amount])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> w DAX.</t>
+    </r>
+  </si>
+  <si>
+    <t>Funkcja zmieniająca kontekst filtra, umożliwiająca wyliczanie wartości w specyficznych warunkach.</t>
+  </si>
+  <si>
+    <t>CALCULATE(SUM(Sales[Amount]), Sales[Region] = "West")</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Funkcja ignorująca wszystkie filtry w tabeli lub kolumnie.</t>
+  </si>
+  <si>
+    <r>
+      <t>ALL(Sales)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> usuwa filtry w kontekście danych sprzedaży.</t>
+    </r>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Graficzna reprezentacja rozkładu danych.</t>
+  </si>
+  <si>
+    <r>
+      <t>plt.hist(data)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> w Pythonie generuje histogram.</t>
+    </r>
+  </si>
+  <si>
+    <t>Scikit-learn</t>
+  </si>
+  <si>
+    <t>Biblioteka do uczenia maszynowego, zawierająca wiele algorytmów do klasyfikacji, regresji i klastrowania.</t>
+  </si>
+  <si>
+    <t>from sklearn.linear_model import LogisticRegression</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Struktura danych używana do przyspieszania zapytań w tabelach bazy danych.</t>
+  </si>
+  <si>
+    <t>CREATE INDEX idx_name ON tabela(kolumna);</t>
+  </si>
+  <si>
+    <t>Window Function</t>
+  </si>
+  <si>
+    <t>Funkcja wykonywana na grupie rekordów powiązanych z bieżącym rekordem.</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER() OVER (PARTITION BY category ORDER BY sales DESC)</t>
+  </si>
+  <si>
+    <t>Overfitting</t>
+  </si>
+  <si>
+    <t>Zjawisko, gdy model działa dobrze na danych treningowych, ale słabo na danych testowych.</t>
+  </si>
+  <si>
+    <t>Rozwiązaniem jest np. regularizacja lub zwiększenie zbioru danych.</t>
+  </si>
+  <si>
+    <t>P-wartość</t>
+  </si>
+  <si>
+    <t>Miara używana w testach statystycznych do określenia, czy wynik jest statystycznie istotny.</t>
+  </si>
+  <si>
+    <r>
+      <t>pvalue &lt; 0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wskazuje, że wynik jest istotny statystycznie.</t>
+    </r>
+  </si>
+  <si>
+    <t>DataFrame</t>
+  </si>
+  <si>
+    <t>Struktura danych z Pandas, która działa jak tabela w Excelu lub SQL.</t>
+  </si>
+  <si>
+    <t>df = pd.DataFrame({'Column1': [1, 2, 3]})</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Interaktywna wizualizacja danych łącząca wiele raportów w jednym widoku.</t>
+  </si>
+  <si>
+    <t>Dashboard łączący raporty sprzedaży, marketingu i logistyki.</t>
   </si>
 </sst>
 </file>
@@ -574,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E254BC-6F33-4BE3-A375-93650F8896EE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="A8" sqref="A8:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -587,7 +872,7 @@
     <col min="4" max="4" width="70.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="172.8">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="132">
+    <row r="3" spans="1:4" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.8">
+    <row r="4" spans="1:4" ht="43.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -643,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="79.2">
+    <row r="5" spans="1:4" ht="43.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -657,7 +942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="92.4">
+    <row r="6" spans="1:4" ht="28.8">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -671,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="157.19999999999999">
+    <row r="7" spans="1:4" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -683,6 +968,286 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Pojecia.xlsx
+++ b/Pojecia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A0B4CF-E597-47A6-B918-65A3ADA80C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4771C2-4F29-4789-8711-B2BE605D4803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1C574333-6B31-4230-9C2C-DFD148D7B7A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="514">
   <si>
     <t>Pojęcie</t>
   </si>
@@ -1545,6 +1545,117 @@
   </si>
   <si>
     <t>df.to_csv('wyniki.csv', index=False) zapisuje DataFrame do pliku 'wyniki.csv'.</t>
+  </si>
+  <si>
+    <t>Power BI Service</t>
+  </si>
+  <si>
+    <t>Usługa online do udostępniania raportów i pulpitów nawigacyjnych.</t>
+  </si>
+  <si>
+    <t>Opublikowałem raport z Power BI Desktop do Power BI Service, aby inni mogli go przeglądać.</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>Obszar roboczy w Power BI Service służący do organizacji raportów i zbiorów danych.</t>
+  </si>
+  <si>
+    <t>Utworzono workspace 'Sprzedaż' do przechowywania raportów zespołu sprzedaży.</t>
+  </si>
+  <si>
+    <t>Dataflow</t>
+  </si>
+  <si>
+    <t>Procesy ETL definiowane w Power BI Service do przekształcania i ładowania danych.</t>
+  </si>
+  <si>
+    <t>Dataflow pobiera dane z SQL i przygotowuje czystą tabelę do raportów.</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Usługa umożliwiająca odświeżanie danych lokalnych w Power BI Service.</t>
+  </si>
+  <si>
+    <t>Zainstalowano gateway, aby automatycznie odświeżać dane z lokalnej bazy danych.</t>
+  </si>
+  <si>
+    <t>Row-Level Security</t>
+  </si>
+  <si>
+    <t>Mechanizm ograniczający dostęp do danych na poziomie wiersza w modelu.</t>
+  </si>
+  <si>
+    <t>Skonfigurowano RLS, aby sprzedawcy widzieli tylko dane swojego regionu.</t>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+  </si>
+  <si>
+    <t>Funkcja zadawania pytań w języku naturalnym, zwracająca wizualizacje.</t>
+  </si>
+  <si>
+    <t>Użytkownik wpisał 'sprzedaż w marcu' i otrzymał wykres linii.</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Train/Test Split</t>
+  </si>
+  <si>
+    <t>Podział zbioru danych na części treningową i testową w celu oceny modelu.</t>
+  </si>
+  <si>
+    <t>80% danych użyto do trenowania, 20% do testowania modelu.</t>
+  </si>
+  <si>
+    <t>Feature Scaling</t>
+  </si>
+  <si>
+    <t>Normalizacja lub standaryzacja cech, aby ulepszyć efektywność algorytmu.</t>
+  </si>
+  <si>
+    <t>Zastosowano standaryzację, aby zmienne miały średnią 0 i odchylenie standardowe 1.</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Technika zapobiegająca nadmiernemu dopasowaniu poprzez dodanie kary za złożoność modelu.</t>
+  </si>
+  <si>
+    <t>Użyto L2 regularizacji w regresji liniowej.</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Algorytm tworzący model w postaci drzewa decyzyjnego, dzielącego dane według cech.</t>
+  </si>
+  <si>
+    <t>Drzewo decyzyjne sklasyfikowało klientów jako potencjalnych nabywców.</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Ensemble złożony z wielu drzew decyzyjnych w celu zwiększenia stabilności i dokładności.</t>
+  </si>
+  <si>
+    <t>Random Forest osiągnął 92% dokładności na zbiorze testowym.</t>
+  </si>
+  <si>
+    <t>KNN (K-Nearest Neighbors)</t>
+  </si>
+  <si>
+    <t>Algorytm klasyfikacji oparty na najbliższych sąsiadach w przestrzeni cech.</t>
+  </si>
+  <si>
+    <t>KNN z k=5 sklasyfikował nowy punkt na podstawie pięciu najbliższych przykładów.</t>
   </si>
 </sst>
 </file>
@@ -1614,25 +1725,6 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1674,6 +1766,25 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1688,13 +1799,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46BC3E88-1D5A-4649-9042-E2F81AA82C56}" name="Tabela1" displayName="Tabela1" ref="A1:D161" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D161" xr:uid="{46BC3E88-1D5A-4649-9042-E2F81AA82C56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46BC3E88-1D5A-4649-9042-E2F81AA82C56}" name="Tabela1" displayName="Tabela1" ref="A1:D173" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D173" xr:uid="{46BC3E88-1D5A-4649-9042-E2F81AA82C56}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EB8553BF-62B8-48DA-8431-232BB6028D56}" name="Kategoria" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AEDC5605-A1CA-4E21-B8E9-BF2ACE8D1C97}" name="Pojęcie" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8803D6AC-ED53-4B7B-864E-A01315A6F1AB}" name="Definicja" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E2D3987F-F326-4711-80B7-658842A5EF55}" name="Przykład użycia" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EB8553BF-62B8-48DA-8431-232BB6028D56}" name="Kategoria" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AEDC5605-A1CA-4E21-B8E9-BF2ACE8D1C97}" name="Pojęcie" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8803D6AC-ED53-4B7B-864E-A01315A6F1AB}" name="Definicja" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E2D3987F-F326-4711-80B7-658842A5EF55}" name="Przykład użycia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2017,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E254BC-6F33-4BE3-A375-93650F8896EE}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4279,6 +4390,174 @@
         <v>476</v>
       </c>
     </row>
+    <row r="162" spans="1:4" ht="28.8">
+      <c r="A162" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="28.8">
+      <c r="A163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="28.8">
+      <c r="A164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="28.8">
+      <c r="A165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="28.8">
+      <c r="A166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="28.8">
+      <c r="A167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28.8">
+      <c r="A168" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="28.8">
+      <c r="A169" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="43.2">
+      <c r="A170" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="28.8">
+      <c r="A171" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="28.8">
+      <c r="A172" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="28.8">
+      <c r="A173" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
